--- a/python/tests/data/Estados.xlsx
+++ b/python/tests/data/Estados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudos\Dados\Municipios-Brasileiros\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetosPessoais\sistema_distancia_entre_cidades\python\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F01710-A6A0-4502-852B-90808D3CDC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D33BC6-957C-45E0-8729-E27187061FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2A70A40-A967-4348-B4C5-C0F41951150C}"/>
+    <workbookView xWindow="5760" yWindow="2148" windowWidth="17280" windowHeight="8976" xr2:uid="{D2A70A40-A967-4348-B4C5-C0F41951150C}"/>
   </bookViews>
   <sheets>
     <sheet name="estados" sheetId="2" r:id="rId1"/>
@@ -911,7 +911,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
